--- a/test-page/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T12:21:48+00:00</t>
+    <t>2024-09-13T13:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T13:09:48+00:00</t>
+    <t>2024-09-13T13:57:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T13:57:40+00:00</t>
+    <t>2024-09-16T07:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T07:30:20+00:00</t>
+    <t>2024-09-16T07:42:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="451">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T07:42:16+00:00</t>
+    <t>2025-01-14T13:38:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1412,23 +1412,7 @@
     <t>Quantity actually administered to the patient or planned to be administered</t>
   </si>
   <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
     <t>quantiteAdministree</t>
-  </si>
-  <si>
-    <t>n/a,PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -9280,10 +9264,10 @@
         <v>443</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9342,13 +9326,13 @@
         <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>446</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>20</v>
@@ -9357,18 +9341,18 @@
         <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9391,16 +9375,16 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9450,7 +9434,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9474,7 +9458,7 @@
         <v>20</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>

--- a/test-page/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:38:58+00:00</t>
+    <t>2025-01-17T14:32:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T14:32:11+00:00</t>
+    <t>2025-01-17T14:33:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
